--- a/results/QDMTTscenario_firstYearCO.xlsx
+++ b/results/QDMTTscenario_firstYearCO.xlsx
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>377072360.2283614</v>
+        <v>377073620.987644</v>
       </c>
       <c r="I3" t="n">
-        <v>377072360.2283614</v>
+        <v>377073620.987644</v>
       </c>
     </row>
     <row r="4">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101070.9712842377</v>
+        <v>101071.3092198137</v>
       </c>
       <c r="I6" t="n">
-        <v>101070.9712842377</v>
+        <v>101071.3092198137</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>361408906.9003095</v>
+        <v>361410115.2880946</v>
       </c>
       <c r="I7" t="n">
-        <v>361408906.9003095</v>
+        <v>361410115.2880946</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1874365396.844078</v>
+        <v>1874371663.873492</v>
       </c>
       <c r="I9" t="n">
-        <v>1874365396.844078</v>
+        <v>1874371663.873492</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20386420.28726867</v>
+        <v>20386488.45022976</v>
       </c>
       <c r="I10" t="n">
-        <v>20386420.28726867</v>
+        <v>20386488.45022976</v>
       </c>
     </row>
     <row r="11">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>49612.37458658855</v>
+        <v>49612.54046791105</v>
       </c>
       <c r="I11" t="n">
-        <v>49612.37458658855</v>
+        <v>49612.54046791105</v>
       </c>
     </row>
     <row r="12">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>194734359.2791903</v>
+        <v>194735010.382737</v>
       </c>
       <c r="I12" t="n">
-        <v>194734359.2791903</v>
+        <v>194735010.382737</v>
       </c>
     </row>
     <row r="13">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1312512.445435652</v>
+        <v>1312516.833883132</v>
       </c>
       <c r="I13" t="n">
-        <v>1312512.445435652</v>
+        <v>1312516.833883132</v>
       </c>
     </row>
     <row r="14">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>408331950.4138794</v>
+        <v>408333310.3659113</v>
       </c>
       <c r="I15" t="n">
-        <v>408331950.4138794</v>
+        <v>408333310.3659113</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>671300455.0502794</v>
+        <v>671302699.5106016</v>
       </c>
       <c r="I16" t="n">
-        <v>1543051722.94275</v>
+        <v>1543053967.403072</v>
       </c>
     </row>
     <row r="17">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>342765.6308637368</v>
+        <v>342766.7769168461</v>
       </c>
       <c r="I17" t="n">
-        <v>342765.6308637368</v>
+        <v>342766.7769168461</v>
       </c>
     </row>
     <row r="18">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>751652.9089474106</v>
+        <v>751655.2831774437</v>
       </c>
       <c r="I19" t="n">
-        <v>751652.9089474106</v>
+        <v>751655.2831774437</v>
       </c>
     </row>
     <row r="20">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1685440.679018942</v>
+        <v>1685446.314369621</v>
       </c>
       <c r="I20" t="n">
-        <v>1685440.679018942</v>
+        <v>1685446.314369621</v>
       </c>
     </row>
     <row r="21">
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1030678.212470055</v>
+        <v>1030681.658591439</v>
       </c>
       <c r="I21" t="n">
-        <v>1030678.212470055</v>
+        <v>1030681.658591439</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>89261148.41676894</v>
+        <v>89261446.86564326</v>
       </c>
       <c r="I22" t="n">
-        <v>89261148.41676894</v>
+        <v>89261446.86564326</v>
       </c>
     </row>
     <row r="23">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>7775145.94094712</v>
+        <v>7775171.937515559</v>
       </c>
       <c r="I25" t="n">
-        <v>7775145.94094712</v>
+        <v>7775171.937515559</v>
       </c>
     </row>
     <row r="26">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>390045.4943610409</v>
+        <v>390046.7499824793</v>
       </c>
       <c r="I26" t="n">
-        <v>390045.4943610409</v>
+        <v>390046.7499824793</v>
       </c>
     </row>
     <row r="27">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1062826.83883745</v>
+        <v>1062830.392449287</v>
       </c>
       <c r="I29" t="n">
-        <v>1062826.83883745</v>
+        <v>1062830.392449287</v>
       </c>
     </row>
     <row r="30">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>490123608.4787953</v>
+        <v>490125247.230277</v>
       </c>
       <c r="I30" t="n">
-        <v>490123608.4787953</v>
+        <v>490125247.230277</v>
       </c>
     </row>
     <row r="31">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>878560.4131232008</v>
+        <v>878563.253286804</v>
       </c>
       <c r="I32" t="n">
-        <v>878560.4131232008</v>
+        <v>878563.253286804</v>
       </c>
     </row>
     <row r="33">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4567231.742694957</v>
+        <v>4567247.013450448</v>
       </c>
       <c r="I34" t="n">
-        <v>4567231.742694957</v>
+        <v>4567247.013450448</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>123055.0071050374</v>
+        <v>123055.4185452777</v>
       </c>
       <c r="I35" t="n">
-        <v>123055.0071050374</v>
+        <v>123055.4185452777</v>
       </c>
     </row>
     <row r="36">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>113227308.1977871</v>
+        <v>113227686.7786509</v>
       </c>
       <c r="I36" t="n">
-        <v>113227308.1977871</v>
+        <v>113227686.7786509</v>
       </c>
     </row>
     <row r="37">
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267754479.8819822</v>
+        <v>267755375.1317581</v>
       </c>
       <c r="I38" t="n">
-        <v>267754479.8819822</v>
+        <v>267755375.1317581</v>
       </c>
     </row>
     <row r="39">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1313698029.576592</v>
+        <v>1313702421.98813</v>
       </c>
       <c r="I39" t="n">
-        <v>1313698029.576592</v>
+        <v>1313702421.98813</v>
       </c>
     </row>
     <row r="40">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5443925.091546103</v>
+        <v>5443943.293567299</v>
       </c>
       <c r="I40" t="n">
-        <v>5443925.091546103</v>
+        <v>5443943.293567299</v>
       </c>
     </row>
     <row r="41">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>103639.750215081</v>
+        <v>103640.096739491</v>
       </c>
       <c r="I42" t="n">
-        <v>103639.750215081</v>
+        <v>103640.096739491</v>
       </c>
     </row>
     <row r="43">
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6617019.976774051</v>
+        <v>6617040.877814107</v>
       </c>
       <c r="I43" t="n">
-        <v>6617019.976774051</v>
+        <v>6617040.877814107</v>
       </c>
     </row>
     <row r="44">
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3023299.643356137</v>
+        <v>3023309.751901583</v>
       </c>
       <c r="I44" t="n">
-        <v>3023299.643356137</v>
+        <v>3023309.751901583</v>
       </c>
     </row>
     <row r="45">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3944512.121717917</v>
+        <v>3944525.310380884</v>
       </c>
       <c r="I45" t="n">
-        <v>3944512.121717917</v>
+        <v>3944525.310380884</v>
       </c>
     </row>
     <row r="46">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>268698083.5333697</v>
+        <v>268698981.938129</v>
       </c>
       <c r="I46" t="n">
-        <v>268698083.5333697</v>
+        <v>268698981.938129</v>
       </c>
     </row>
     <row r="47">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>140628430.2752843</v>
+        <v>140628897.0966184</v>
       </c>
       <c r="I50" t="n">
-        <v>140698866.0477997</v>
+        <v>140699336.4811174</v>
       </c>
     </row>
     <row r="51">
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>563505021.9177732</v>
+        <v>563506894.0199786</v>
       </c>
       <c r="I51" t="n">
-        <v>3398574385.729463</v>
+        <v>3398576257.831668</v>
       </c>
     </row>
     <row r="52">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>225255984.4679033</v>
+        <v>225256737.5646927</v>
       </c>
       <c r="I52" t="n">
-        <v>1217061397.545417</v>
+        <v>1217062150.642206</v>
       </c>
     </row>
     <row r="53">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>45731932.55227078</v>
+        <v>45732085.45915169</v>
       </c>
       <c r="I53" t="n">
-        <v>45731932.55227078</v>
+        <v>45732085.45915169</v>
       </c>
     </row>
     <row r="54">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>10666151.19050339</v>
+        <v>10666186.8532847</v>
       </c>
       <c r="I54" t="n">
-        <v>10666151.19050339</v>
+        <v>10666186.8532847</v>
       </c>
     </row>
     <row r="55">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>30906189.16499708</v>
+        <v>30906290.97987752</v>
       </c>
       <c r="I55" t="n">
-        <v>30906189.16499708</v>
+        <v>30906290.97987752</v>
       </c>
     </row>
     <row r="56">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>32128101.48921892</v>
+        <v>32128208.49440343</v>
       </c>
       <c r="I56" t="n">
-        <v>32128101.48921892</v>
+        <v>32128208.49440343</v>
       </c>
     </row>
     <row r="57">
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>992741008.6089128</v>
+        <v>992744327.8568667</v>
       </c>
       <c r="I57" t="n">
-        <v>1127533816.960513</v>
+        <v>1127537136.208467</v>
       </c>
     </row>
     <row r="58">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>3708810.992418102</v>
+        <v>3708823.393001966</v>
       </c>
       <c r="I58" t="n">
-        <v>62044764.24249353</v>
+        <v>61317355.56918587</v>
       </c>
     </row>
     <row r="59">
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7074557200.598694</v>
+        <v>7074580854.715521</v>
       </c>
       <c r="I60" t="n">
-        <v>7074557200.598694</v>
+        <v>7074580854.715521</v>
       </c>
     </row>
     <row r="61">
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>32403622.70250964</v>
+        <v>32403731.04555576</v>
       </c>
       <c r="I61" t="n">
-        <v>890053872.7393702</v>
+        <v>890053981.0824163</v>
       </c>
     </row>
     <row r="62">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>12301490391.4445</v>
+        <v>12301531522.05983</v>
       </c>
       <c r="I63" t="n">
-        <v>12301490391.4445</v>
+        <v>12301531522.05983</v>
       </c>
     </row>
     <row r="64">
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>31928302.04369623</v>
+        <v>31928408.79748523</v>
       </c>
       <c r="I64" t="n">
-        <v>31928302.04369623</v>
+        <v>31928408.79748523</v>
       </c>
     </row>
     <row r="65">
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>619228.2556987245</v>
+        <v>619230.3261177045</v>
       </c>
       <c r="I65" t="n">
-        <v>619228.2556987245</v>
+        <v>619230.3261177045</v>
       </c>
     </row>
     <row r="66">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>9420304888.690865</v>
+        <v>9367560538.35248</v>
       </c>
       <c r="I68" t="n">
-        <v>9420304888.690865</v>
+        <v>9367560538.35248</v>
       </c>
     </row>
     <row r="69">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>11110371.14905033</v>
+        <v>11110408.10062891</v>
       </c>
       <c r="I69" t="n">
-        <v>11110371.14905033</v>
+        <v>11110408.10062891</v>
       </c>
     </row>
     <row r="70">
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>27817126.39841416</v>
+        <v>27817219.40629281</v>
       </c>
       <c r="I71" t="n">
-        <v>27817126.39841416</v>
+        <v>27817219.40629281</v>
       </c>
     </row>
     <row r="72">
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>397830.9439561976</v>
+        <v>397832.2741227875</v>
       </c>
       <c r="I73" t="n">
-        <v>397830.9439561976</v>
+        <v>397832.2741227875</v>
       </c>
     </row>
     <row r="74">
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>748144.1953509513</v>
+        <v>748146.6968064768</v>
       </c>
       <c r="I74" t="n">
-        <v>748144.1953509513</v>
+        <v>748146.6968064768</v>
       </c>
     </row>
     <row r="75">
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>53149439.08736451</v>
+        <v>53149616.79502957</v>
       </c>
       <c r="I75" t="n">
-        <v>70076588.01606503</v>
+        <v>70076765.7237301</v>
       </c>
     </row>
     <row r="76">
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>173388972.9863486</v>
+        <v>173389552.720586</v>
       </c>
       <c r="I78" t="n">
-        <v>173388972.9863486</v>
+        <v>173389552.720586</v>
       </c>
     </row>
     <row r="79">
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>3863661.81104628</v>
+        <v>3863674.729382406</v>
       </c>
       <c r="I79" t="n">
-        <v>3863661.81104628</v>
+        <v>3863674.729382406</v>
       </c>
     </row>
     <row r="80">
@@ -3180,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>20063362.61402083</v>
+        <v>20063429.6968233</v>
       </c>
       <c r="I83" t="n">
-        <v>20063362.61402083</v>
+        <v>20063429.6968233</v>
       </c>
     </row>
     <row r="84">
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>58006554.37205445</v>
+        <v>58006748.31971435</v>
       </c>
       <c r="I84" t="n">
-        <v>58006554.37205445</v>
+        <v>58006748.31971435</v>
       </c>
     </row>
     <row r="85">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>273058.2940968419</v>
+        <v>273059.2070801717</v>
       </c>
       <c r="I85" t="n">
-        <v>273058.2940968419</v>
+        <v>273059.2070801717</v>
       </c>
     </row>
     <row r="86">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>124804538.8853433</v>
+        <v>124804945.1882786</v>
       </c>
       <c r="I86" t="n">
-        <v>432023901.2238486</v>
+        <v>428194244.3303533</v>
       </c>
     </row>
     <row r="87">
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>44870398.50000191</v>
+        <v>44870548.52630294</v>
       </c>
       <c r="I87" t="n">
-        <v>44870398.50000191</v>
+        <v>44870548.52630294</v>
       </c>
     </row>
     <row r="88">
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>13908285.64506797</v>
+        <v>13908332.14807928</v>
       </c>
       <c r="I89" t="n">
-        <v>13908285.64506797</v>
+        <v>13908332.14807928</v>
       </c>
     </row>
     <row r="90">
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>22609621.72494958</v>
+        <v>22609697.32128989</v>
       </c>
       <c r="I91" t="n">
-        <v>22609621.72494958</v>
+        <v>22609697.32128989</v>
       </c>
     </row>
     <row r="92">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2804314.978664343</v>
+        <v>2804324.355024198</v>
       </c>
       <c r="I92" t="n">
-        <v>2804314.978664343</v>
+        <v>2804324.355024198</v>
       </c>
     </row>
     <row r="93">
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2837406.267331672</v>
+        <v>2837415.754333816</v>
       </c>
       <c r="I93" t="n">
-        <v>2837406.267331672</v>
+        <v>2837415.754333816</v>
       </c>
     </row>
     <row r="94">
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>27147033.60648428</v>
+        <v>27147124.37387596</v>
       </c>
       <c r="I94" t="n">
-        <v>27147033.60648428</v>
+        <v>27147124.37387596</v>
       </c>
     </row>
     <row r="95">
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>686967.8174781585</v>
+        <v>686970.1143875694</v>
       </c>
       <c r="I95" t="n">
-        <v>912936664.6120052</v>
+        <v>912936666.9089146</v>
       </c>
     </row>
     <row r="96">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1813881.777468635</v>
+        <v>1813887.842268206</v>
       </c>
       <c r="I98" t="n">
-        <v>1813881.777468635</v>
+        <v>1813887.842268206</v>
       </c>
     </row>
     <row r="99">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>40764828.94587496</v>
+        <v>40764965.24500988</v>
       </c>
       <c r="I99" t="n">
-        <v>40764828.94587496</v>
+        <v>40764965.24500988</v>
       </c>
     </row>
     <row r="100">
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1647394.648681419</v>
+        <v>1647400.156823395</v>
       </c>
       <c r="I100" t="n">
-        <v>1647394.648681419</v>
+        <v>1647400.156823395</v>
       </c>
     </row>
     <row r="101">
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1227051.289911596</v>
+        <v>1227055.392615658</v>
       </c>
       <c r="I101" t="n">
-        <v>1227051.289911596</v>
+        <v>1227055.392615658</v>
       </c>
     </row>
     <row r="102">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>64322124.85300063</v>
+        <v>64322339.78747457</v>
       </c>
       <c r="I102" t="n">
-        <v>64322124.85300063</v>
+        <v>64322339.78747457</v>
       </c>
     </row>
     <row r="103">
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>27312793.34519851</v>
+        <v>27312884.66681574</v>
       </c>
       <c r="I104" t="n">
-        <v>27312793.34519851</v>
+        <v>27312884.66681574</v>
       </c>
     </row>
     <row r="105">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>31000048.71489783</v>
+        <v>31000150.44939517</v>
       </c>
       <c r="I105" t="n">
-        <v>31000048.71489783</v>
+        <v>31000150.44939517</v>
       </c>
     </row>
     <row r="106">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>9481794.833809327</v>
+        <v>9481825.356986091</v>
       </c>
       <c r="I106" t="n">
-        <v>9481794.833809327</v>
+        <v>9481825.356986091</v>
       </c>
     </row>
     <row r="107">
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>28591408.59869941</v>
+        <v>28591504.19542724</v>
       </c>
       <c r="I108" t="n">
-        <v>28591408.59869941</v>
+        <v>28591504.19542724</v>
       </c>
     </row>
     <row r="109">
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>426382.2334653405</v>
+        <v>426383.6590945181</v>
       </c>
       <c r="I109" t="n">
-        <v>426382.2334653405</v>
+        <v>426383.6590945181</v>
       </c>
     </row>
     <row r="110">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>15699598.46371711</v>
+        <v>15699648.76105805</v>
       </c>
       <c r="I112" t="n">
-        <v>15699598.46371711</v>
+        <v>15699648.76105805</v>
       </c>
     </row>
     <row r="113">
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>4860945.852002706</v>
+        <v>4860962.104805223</v>
       </c>
       <c r="I114" t="n">
-        <v>4860945.852002706</v>
+        <v>4860962.104805223</v>
       </c>
     </row>
     <row r="115">
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>9839476.546503399</v>
+        <v>9839509.445012912</v>
       </c>
       <c r="I116" t="n">
-        <v>99171831.21770331</v>
+        <v>98057932.99778686</v>
       </c>
     </row>
     <row r="117">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>49932424.34044858</v>
+        <v>49932591.29187258</v>
       </c>
       <c r="I118" t="n">
-        <v>49932424.34044858</v>
+        <v>49932591.29187258</v>
       </c>
     </row>
     <row r="119">
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>6016.66035599641</v>
+        <v>6016.680472985068</v>
       </c>
       <c r="I120" t="n">
-        <v>6016.66035599641</v>
+        <v>6016.680472985068</v>
       </c>
     </row>
     <row r="121">
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>366965.5906146303</v>
+        <v>366966.8175814503</v>
       </c>
       <c r="I121" t="n">
-        <v>366965.5906146303</v>
+        <v>366966.8175814503</v>
       </c>
     </row>
     <row r="122">
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>28758.23133155719</v>
+        <v>28758.32748606473</v>
       </c>
       <c r="I122" t="n">
-        <v>28758.23133155719</v>
+        <v>28758.32748606473</v>
       </c>
     </row>
     <row r="123">
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1209809.599172514</v>
+        <v>1209813.644228167</v>
       </c>
       <c r="I123" t="n">
-        <v>1209809.599172514</v>
+        <v>1209813.644228167</v>
       </c>
     </row>
     <row r="124">
@@ -4566,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>663179.894042515</v>
+        <v>663182.1114158779</v>
       </c>
       <c r="I125" t="n">
-        <v>663179.894042515</v>
+        <v>663182.1114158779</v>
       </c>
     </row>
     <row r="126">
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>792062.146801503</v>
+        <v>792064.7950987779</v>
       </c>
       <c r="I126" t="n">
-        <v>792062.146801503</v>
+        <v>792064.7950987779</v>
       </c>
     </row>
     <row r="127">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>236490499.6842359</v>
       </c>
       <c r="I127" t="n">
-        <v>288440219.6463566</v>
+        <v>287792431.8072211</v>
       </c>
     </row>
     <row r="128">
@@ -4665,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>16114112.6333521</v>
+        <v>16114166.51165035</v>
       </c>
       <c r="I128" t="n">
-        <v>16114112.6333521</v>
+        <v>16114166.51165035</v>
       </c>
     </row>
     <row r="129">
@@ -4698,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>207719.9264905779</v>
+        <v>207720.6210119832</v>
       </c>
       <c r="I129" t="n">
-        <v>207719.9264905779</v>
+        <v>207720.6210119832</v>
       </c>
     </row>
     <row r="130">
@@ -4731,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1471429.306940373</v>
+        <v>1471434.226733901</v>
       </c>
       <c r="I130" t="n">
-        <v>1471429.306940373</v>
+        <v>1471434.226733901</v>
       </c>
     </row>
     <row r="131">
@@ -4764,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>591734.4668311962</v>
+        <v>591736.4453233919</v>
       </c>
       <c r="I131" t="n">
-        <v>591734.4668311962</v>
+        <v>591736.4453233919</v>
       </c>
     </row>
     <row r="132">
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>911385.2077852599</v>
+        <v>911388.2550448366</v>
       </c>
       <c r="I132" t="n">
-        <v>911385.2077852599</v>
+        <v>911388.2550448366</v>
       </c>
     </row>
     <row r="133">
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>79216484.10587154</v>
+        <v>79216748.00979233</v>
       </c>
       <c r="I135" t="n">
-        <v>79216484.10587154</v>
+        <v>79216748.00979233</v>
       </c>
     </row>
     <row r="136">
@@ -4962,10 +4962,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>3502934.980266988</v>
+        <v>3502946.692495883</v>
       </c>
       <c r="I137" t="n">
-        <v>3502934.980266988</v>
+        <v>3502946.692495883</v>
       </c>
     </row>
     <row r="138">
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>36240.93397290825</v>
+        <v>36241.05514618621</v>
       </c>
       <c r="I138" t="n">
-        <v>36240.93397290825</v>
+        <v>36241.05514618621</v>
       </c>
     </row>
     <row r="139">
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>17148802916.72936</v>
+        <v>17017413096.39466</v>
       </c>
       <c r="I139" t="n">
-        <v>19173447012.0234</v>
+        <v>17829804930.43578</v>
       </c>
     </row>
     <row r="140">
@@ -5061,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>34193787.92445839</v>
+        <v>34193901.97741831</v>
       </c>
       <c r="I140" t="n">
-        <v>34193787.92445839</v>
+        <v>34193901.97741831</v>
       </c>
     </row>
     <row r="141">
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>83388.05797592587</v>
+        <v>83388.33678784432</v>
       </c>
       <c r="I141" t="n">
-        <v>83388.05797592587</v>
+        <v>83388.33678784432</v>
       </c>
     </row>
     <row r="142">
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5923846.945450759</v>
+        <v>5923866.126302224</v>
       </c>
       <c r="I142" t="n">
-        <v>5923846.945450759</v>
+        <v>5923866.126302224</v>
       </c>
     </row>
     <row r="143">
@@ -5160,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>164754547.0317084</v>
+        <v>164755097.896334</v>
       </c>
       <c r="I143" t="n">
-        <v>164754547.0317084</v>
+        <v>164755097.896334</v>
       </c>
     </row>
     <row r="144">
@@ -5193,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>3771450701.699897</v>
+        <v>3771463311.723815</v>
       </c>
       <c r="I144" t="n">
-        <v>3771450701.699897</v>
+        <v>3771463311.723815</v>
       </c>
     </row>
     <row r="145">
@@ -5226,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>892156330.6068639</v>
+        <v>892159313.5737796</v>
       </c>
       <c r="I145" t="n">
-        <v>892156330.6068639</v>
+        <v>892159313.5737796</v>
       </c>
     </row>
     <row r="146">
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>19898206.97868595</v>
+        <v>19898273.50928273</v>
       </c>
       <c r="I146" t="n">
-        <v>19898206.97868595</v>
+        <v>19898273.50928273</v>
       </c>
     </row>
     <row r="147">
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>9730567975.766039</v>
+        <v>9730600510.285379</v>
       </c>
       <c r="I147" t="n">
-        <v>9730567975.766039</v>
+        <v>9730600510.285379</v>
       </c>
     </row>
     <row r="148">
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>6873764.111436026</v>
+        <v>6873787.094191656</v>
       </c>
       <c r="I150" t="n">
-        <v>6873764.111436026</v>
+        <v>6873787.094191656</v>
       </c>
     </row>
     <row r="151">
@@ -5424,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>53334829.16397534</v>
+        <v>53335007.4915009</v>
       </c>
       <c r="I151" t="n">
-        <v>53334829.16397534</v>
+        <v>53335007.4915009</v>
       </c>
     </row>
     <row r="152">
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>267584.1890424489</v>
+        <v>267585.0837228493</v>
       </c>
       <c r="I152" t="n">
-        <v>267584.1890424489</v>
+        <v>267585.0837228493</v>
       </c>
     </row>
     <row r="153">
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>525846155.2310847</v>
+        <v>525847900.5626415</v>
       </c>
       <c r="I153" t="n">
-        <v>2717633484.701326</v>
+        <v>2690308062.846657</v>
       </c>
     </row>
     <row r="154">
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>333538983.3833417</v>
+        <v>333540091.220321</v>
       </c>
       <c r="I156" t="n">
-        <v>333692651.7513134</v>
+        <v>333693767.4684877</v>
       </c>
     </row>
     <row r="157">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>18805007.65794197</v>
+        <v>18805070.53337508</v>
       </c>
       <c r="I157" t="n">
-        <v>18805007.65794197</v>
+        <v>18805070.53337508</v>
       </c>
     </row>
     <row r="158">
@@ -5655,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>51844502.98453466</v>
+        <v>51844676.3290841</v>
       </c>
       <c r="I158" t="n">
-        <v>51844502.98453466</v>
+        <v>51844676.3290841</v>
       </c>
     </row>
     <row r="159">
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>36034818.60299552</v>
+        <v>36034939.08711699</v>
       </c>
       <c r="I159" t="n">
-        <v>88884502.83846259</v>
+        <v>88884623.32258406</v>
       </c>
     </row>
     <row r="160">
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>43936627.13468459</v>
+        <v>43936774.03887687</v>
       </c>
       <c r="I160" t="n">
-        <v>43936627.13468459</v>
+        <v>43936774.03887687</v>
       </c>
     </row>
     <row r="161">
@@ -5754,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>446794686.5485873</v>
+        <v>446796180.4277678</v>
       </c>
       <c r="I161" t="n">
-        <v>446794686.5485873</v>
+        <v>446796180.4277678</v>
       </c>
     </row>
     <row r="162">
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>899256.7569568523</v>
+        <v>899259.7636643795</v>
       </c>
       <c r="I162" t="n">
-        <v>899256.7569568523</v>
+        <v>899259.7636643795</v>
       </c>
     </row>
     <row r="163">
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3539486.915468691</v>
+        <v>3539498.384880262</v>
       </c>
       <c r="I163" t="n">
-        <v>3539486.915468691</v>
+        <v>3539498.384880262</v>
       </c>
     </row>
     <row r="164">
@@ -5919,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>104479.5572817811</v>
+        <v>104479.9066141257</v>
       </c>
       <c r="I166" t="n">
-        <v>104479.5572817811</v>
+        <v>104479.9066141257</v>
       </c>
     </row>
     <row r="167">
@@ -5952,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>212380152.0262995</v>
+        <v>212380862.1293894</v>
       </c>
       <c r="I167" t="n">
-        <v>212380152.0262995</v>
+        <v>212380862.1293894</v>
       </c>
     </row>
     <row r="168">
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6051,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>153145.2462866128</v>
+        <v>153145.757635042</v>
       </c>
       <c r="I170" t="n">
-        <v>153159.8477439714</v>
+        <v>153160.3598411711</v>
       </c>
     </row>
     <row r="171">
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>13698702.99233732</v>
+        <v>13698748.79459911</v>
       </c>
       <c r="I171" t="n">
-        <v>21714040.34843129</v>
+        <v>21714086.15069308</v>
       </c>
     </row>
     <row r="172">
@@ -6117,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>373078733.5611387</v>
+        <v>373079980.9675416</v>
       </c>
       <c r="I172" t="n">
-        <v>373078733.5611387</v>
+        <v>373079980.9675416</v>
       </c>
     </row>
     <row r="173">
@@ -6150,10 +6150,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>39554327.27620549</v>
+        <v>39554459.52797078</v>
       </c>
       <c r="I173" t="n">
-        <v>39554327.27620549</v>
+        <v>39554459.52797078</v>
       </c>
     </row>
     <row r="174">
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>30862502.81817378</v>
+        <v>30862605.13146781</v>
       </c>
       <c r="I175" t="n">
-        <v>30862502.81817378</v>
+        <v>30862605.13146781</v>
       </c>
     </row>
     <row r="176">
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1930511.735496572</v>
+        <v>1930518.190253927</v>
       </c>
       <c r="I176" t="n">
-        <v>1930511.735496572</v>
+        <v>1930518.190253927</v>
       </c>
     </row>
     <row r="177">
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>3560155.221276991</v>
+        <v>3560167.12482447</v>
       </c>
       <c r="I178" t="n">
-        <v>3560155.221276991</v>
+        <v>3560167.12482447</v>
       </c>
     </row>
     <row r="179">
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>30187619.35269984</v>
+        <v>30187720.28643388</v>
       </c>
       <c r="I179" t="n">
-        <v>30187619.35269984</v>
+        <v>30187720.28643388</v>
       </c>
     </row>
     <row r="180">
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>96273622.45112462</v>
+        <v>96273944.34653777</v>
       </c>
       <c r="I180" t="n">
-        <v>96273622.45112462</v>
+        <v>96273944.34653777</v>
       </c>
     </row>
     <row r="181">
@@ -6414,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>819363.5219237132</v>
+        <v>819366.2615044279</v>
       </c>
       <c r="I181" t="n">
-        <v>819363.5219237132</v>
+        <v>819366.2615044279</v>
       </c>
     </row>
     <row r="182">
@@ -6447,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3942242.3820454</v>
+        <v>3942255.563119384</v>
       </c>
       <c r="I182" t="n">
-        <v>3942242.3820454</v>
+        <v>3942255.563119384</v>
       </c>
     </row>
     <row r="183">
@@ -6480,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>13924002.94390302</v>
+        <v>13924049.49946586</v>
       </c>
       <c r="I183" t="n">
-        <v>13924002.94390302</v>
+        <v>13924049.49946586</v>
       </c>
     </row>
     <row r="184">
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>89711321.44561666</v>
+        <v>89711621.3996658</v>
       </c>
       <c r="I184" t="n">
-        <v>89711321.44561666</v>
+        <v>89711621.3996658</v>
       </c>
     </row>
     <row r="185">
@@ -6546,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>8085714897.08391</v>
+        <v>8085741932.054352</v>
       </c>
       <c r="I185" t="n">
-        <v>8085714897.08391</v>
+        <v>8085741932.054352</v>
       </c>
     </row>
     <row r="186">
@@ -6579,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>724629.1039758931</v>
+        <v>724631.5268075977</v>
       </c>
       <c r="I186" t="n">
-        <v>724629.1039758931</v>
+        <v>724631.5268075977</v>
       </c>
     </row>
     <row r="187">
@@ -6645,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>84373813.98138224</v>
+        <v>84374095.19661984</v>
       </c>
       <c r="I188" t="n">
-        <v>84373813.98138224</v>
+        <v>84374095.19661984</v>
       </c>
     </row>
     <row r="189">
@@ -6711,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>283698580.2746494</v>
+        <v>283699528.8342795</v>
       </c>
       <c r="I190" t="n">
-        <v>283698580.2746494</v>
+        <v>283699528.8342795</v>
       </c>
     </row>
     <row r="191">
@@ -6744,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>56970615.7386918</v>
+        <v>56970804.96272497</v>
       </c>
       <c r="I191" t="n">
-        <v>56970615.7386918</v>
+        <v>56970804.96272497</v>
       </c>
     </row>
     <row r="192">
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>21665154.46356601</v>
+        <v>21665226.90203533</v>
       </c>
       <c r="I192" t="n">
-        <v>21665154.46356601</v>
+        <v>21665226.90203533</v>
       </c>
     </row>
     <row r="193">
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>21158395.7765663</v>
+        <v>21158466.52066398</v>
       </c>
       <c r="I193" t="n">
-        <v>21158395.7765663</v>
+        <v>21158466.52066398</v>
       </c>
     </row>
     <row r="194">
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>108791.3023771977</v>
+        <v>108791.6661260661</v>
       </c>
       <c r="I194" t="n">
-        <v>108791.3023771977</v>
+        <v>108791.6661260661</v>
       </c>
     </row>
     <row r="195">
@@ -6876,10 +6876,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>219921.5373222619</v>
+        <v>219922.2726403305</v>
       </c>
       <c r="I195" t="n">
-        <v>219921.5373222619</v>
+        <v>219922.2726403305</v>
       </c>
     </row>
     <row r="196">
@@ -6909,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>160580471.9506941</v>
+        <v>160581008.8591021</v>
       </c>
       <c r="I196" t="n">
-        <v>160580471.9506941</v>
+        <v>160581008.8591021</v>
       </c>
     </row>
     <row r="197">
@@ -6942,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>8321211.111536641</v>
+        <v>8321238.13777728</v>
       </c>
       <c r="I197" t="n">
-        <v>8321211.111536641</v>
+        <v>8321238.13777728</v>
       </c>
     </row>
     <row r="198">
@@ -6975,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>122510.2521871052</v>
+        <v>122510.6618059317</v>
       </c>
       <c r="I198" t="n">
-        <v>122510.2521871052</v>
+        <v>122510.6618059317</v>
       </c>
     </row>
   </sheetData>
